--- a/Simulator/output/SeqNumberGraph.xlsx
+++ b/Simulator/output/SeqNumberGraph.xlsx
@@ -67,61 +67,657 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr anchor="t" rtlCol="false"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SeqNumPlot</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="false"/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="marker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>SeqNumbs</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Flow 0'!$B$2:$B$12</c:f>
+              <c:f>'Flow 0'!$B$2:$B$202</c:f>
               <c:numCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="201"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.24000000000001</c:v>
+                  <c:v>101.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.24000000000001</c:v>
+                  <c:v>103.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94.24000000000001</c:v>
+                  <c:v>105.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93.24000000000001</c:v>
+                  <c:v>107.32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94.24000000000001</c:v>
+                  <c:v>109.32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93.24000000000001</c:v>
+                  <c:v>111.32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94.24000000000001</c:v>
+                  <c:v>113.32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>93.24000000000001</c:v>
+                  <c:v>115.32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>94.24000000000001</c:v>
+                  <c:v>117.32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>93.24000000000001</c:v>
+                  <c:v>119.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>121.32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>123.32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>125.32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>127.32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>129.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>131.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>133.32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>135.32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>137.32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>139.32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>141.32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>143.32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>145.32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>147.32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>149.32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>151.32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>153.32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>155.32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>157.32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>159.32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>161.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>163.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165.32</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>167.32</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>169.32</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>171.32</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>173.32</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>175.32</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>177.32</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>179.32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>181.32</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>183.32</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>185.32</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>187.32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>189.32</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>191.32</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>193.32</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>195.32</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>197.32</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>199.32</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>201.32</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>203.32</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>205.32</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>207.32</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>209.32</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>211.32</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>213.32</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>215.32</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>217.32</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>219.32</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>221.32</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>223.32</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>225.32</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>227.32</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>229.32</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>231.32</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>233.32</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>235.32</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>237.32</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>239.32</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>241.32</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>243.32</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>245.32</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>247.32</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>249.32</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>251.32</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>253.32</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>255.32</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>257.32</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>259.32</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>261.32</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>263.32</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>265.32</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>267.32</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>269.32</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>271.32</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>273.32</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>275.32</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>277.32</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>279.32</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>281.32</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>283.32</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>285.32</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>287.32</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>289.32</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>291.32</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>293.32</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>295.32</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>297.32</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>299.32</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>301.32</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>303.32</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>305.32</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>307.32</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>309.32</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>311.32</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>313.32</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>315.32</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>317.32</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>319.32</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>321.32</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>323.32</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>325.32</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>327.32</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>329.32</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>331.32</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>333.32</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>335.32</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>337.32</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>339.32</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>341.32</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>343.32</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>345.32</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>347.32</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>349.32</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>351.32</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>353.32</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>355.32</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>357.32</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>359.32</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>361.32</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>363.32</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>365.32</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>367.32</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>369.32</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>371.32</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>373.32</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>375.32</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>377.32</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>379.32</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>381.32</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>383.32</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>385.32</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>387.32</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>389.32</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>391.32</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>393.32</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>395.32</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>397.32</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>399.32</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>401.32</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>403.32</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>405.32</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>407.32</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>409.32</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>411.32</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>413.32</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>415.32</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>417.32</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>419.32</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>421.32</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>423.32</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>425.32</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>427.32</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>429.32</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>431.32</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>433.32</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>435.32</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>437.32</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>439.32</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>441.32</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>443.32</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>445.32</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>447.32</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>449.32</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>451.32</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>453.32</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>455.32</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>457.32</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>459.32</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>461.32</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>463.32</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>465.32</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>467.32</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>469.32</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>471.32</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>473.32</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>475.32</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>477.32</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>479.32</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>481.32</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>483.32</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>485.32</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>487.32</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>489.32</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>491.32</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>493.32</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>495.32</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>497.32</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>499.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Flow 0'!$A$2:$A$12</c:f>
+              <c:f>'Flow 0'!$A$2:$A$202</c:f>
               <c:numCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="201"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -154,66 +750,1845 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187.0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189.0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193.0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197.0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199.0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="false"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Acks</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="x"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Flow 0'!$D$2:$D$3</c:f>
+              <c:f>'Flow 0'!$D$2:$D$202</c:f>
               <c:numCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="201"/>
                 <c:pt idx="0">
-                  <c:v>178.44</c:v>
+                  <c:v>101.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>179.44</c:v>
+                  <c:v>301.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>303.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>305.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>307.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>309.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>311.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>313.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>315.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>317.32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>319.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>321.32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>323.32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>325.32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>327.32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>329.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>331.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>333.32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>335.32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>337.32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>339.32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>341.32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>343.32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>345.32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>347.32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>349.32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>351.32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>353.32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>355.32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>357.32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>359.32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>361.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>363.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>365.32</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>367.32</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>369.32</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>371.32</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>373.32</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>375.32</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>377.32</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>379.32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>381.32</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>383.32</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>385.32</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>387.32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>389.32</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>391.32</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>393.32</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>395.32</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>397.32</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>399.32</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>401.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>403.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>405.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>407.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>409.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>411.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>413.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>415.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>417.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>419.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>421.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>423.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>425.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>427.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>429.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>431.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>433.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>435.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>437.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>439.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>441.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>443.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>445.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>447.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>449.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>451.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>453.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>455.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>457.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>459.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>461.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>463.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>465.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>467.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>469.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>471.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>473.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>475.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>477.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>479.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>481.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>483.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>485.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>487.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>489.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>491.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>493.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>495.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>497.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>499.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>501.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>503.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>505.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>507.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>509.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>511.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>513.32</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>515.32</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>517.32</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>519.32</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>521.32</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>523.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>525.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>527.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>529.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>531.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>533.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>535.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>537.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>539.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>541.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>543.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>545.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>547.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>549.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>551.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>553.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>555.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>557.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>559.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>561.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>563.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>565.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>567.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>569.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>571.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>573.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>575.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>577.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>579.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>581.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>583.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>585.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>587.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>589.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>591.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>593.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>595.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>597.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>599.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>601.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>603.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>605.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>607.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>609.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>611.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>613.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>615.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>617.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>619.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>621.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>623.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>625.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>627.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>629.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>631.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>633.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>635.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>637.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>639.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>641.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>643.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>645.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>647.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>649.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>651.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>653.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>655.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>657.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>659.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>661.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>663.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>665.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>667.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>669.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>671.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>673.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>675.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>677.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>679.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>681.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>683.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>685.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>687.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>689.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>691.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>693.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>697.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>699.3199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Flow 0'!$C$2:$C$3</c:f>
+              <c:f>'Flow 0'!$C$2:$C$202</c:f>
               <c:numCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="201"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187.0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189.0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193.0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197.0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199.0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="false"/>
         </c:ser>
+        <c:axId val="0"/>
         <c:axId val="1"/>
-        <c:axId val="2"/>
       </c:scatterChart>
-      <c:catAx>
-        <c:axId val="1"/>
+      <c:valAx>
+        <c:axId val="0"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="false"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="false"/>
-        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr anchor="t" rtlCol="false"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="false"/>
+        </c:title>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -221,9 +2596,43 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr anchor="t" rtlCol="false"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SeqNumber</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="false"/>
+        </c:title>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="0"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="tr"/>
       <c:overlay val="false"/>
     </c:legend>
     <c:plotVisOnly val="true"/>
@@ -242,13 +2651,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>206</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -273,7 +2682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D202"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -304,7 +2713,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>178.44</v>
+        <v>101.32</v>
       </c>
     </row>
     <row r="3">
@@ -312,13 +2721,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="n">
-        <v>94.24000000000001</v>
+        <v>101.32</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>179.44</v>
+        <v>301.32</v>
       </c>
     </row>
     <row r="4">
@@ -326,7 +2735,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" t="n">
-        <v>93.24000000000001</v>
+        <v>103.32</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>303.32</v>
       </c>
     </row>
     <row r="5">
@@ -334,7 +2749,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" t="n">
-        <v>94.24000000000001</v>
+        <v>105.32</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>305.32</v>
       </c>
     </row>
     <row r="6">
@@ -342,7 +2763,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" t="n">
-        <v>93.24000000000001</v>
+        <v>107.32</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>307.32</v>
       </c>
     </row>
     <row r="7">
@@ -350,7 +2777,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" t="n">
-        <v>94.24000000000001</v>
+        <v>109.32</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>309.32</v>
       </c>
     </row>
     <row r="8">
@@ -358,7 +2791,13 @@
         <v>6.0</v>
       </c>
       <c r="B8" t="n">
-        <v>93.24000000000001</v>
+        <v>111.32</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>311.32</v>
       </c>
     </row>
     <row r="9">
@@ -366,7 +2805,13 @@
         <v>7.0</v>
       </c>
       <c r="B9" t="n">
-        <v>94.24000000000001</v>
+        <v>113.32</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>313.32</v>
       </c>
     </row>
     <row r="10">
@@ -374,7 +2819,13 @@
         <v>8.0</v>
       </c>
       <c r="B10" t="n">
-        <v>93.24000000000001</v>
+        <v>115.32</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315.32</v>
       </c>
     </row>
     <row r="11">
@@ -382,7 +2833,13 @@
         <v>9.0</v>
       </c>
       <c r="B11" t="n">
-        <v>94.24000000000001</v>
+        <v>117.32</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>317.32</v>
       </c>
     </row>
     <row r="12">
@@ -390,7 +2847,2673 @@
         <v>10.0</v>
       </c>
       <c r="B12" t="n">
-        <v>93.24000000000001</v>
+        <v>119.32</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>319.32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>121.32</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>321.32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>123.32</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>323.32</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>125.32</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>325.32</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>127.32</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>327.32</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>129.32</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>329.32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>131.32</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>331.32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>133.32</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>333.32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>135.32</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>335.32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>137.32</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>337.32</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>139.32</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>339.32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>141.32</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>341.32</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>143.32</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>343.32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>145.32</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>345.32</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>147.32</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>347.32</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>149.32</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>349.32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>151.32</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>351.32</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>153.32</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>353.32</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>155.32</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>355.32</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>157.32</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>357.32</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>159.32</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>359.32</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>161.32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>361.32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>163.32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>363.32</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>165.32</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>365.32</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>167.32</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>367.32</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>169.32</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>369.32</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>171.32</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>371.32</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>173.32</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>373.32</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>175.32</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>375.32</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>177.32</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>377.32</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>179.32</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>379.32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>181.32</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>381.32</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>183.32</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>383.32</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>185.32</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>385.32</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>187.32</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>387.32</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>189.32</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>389.32</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>191.32</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>391.32</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>193.32</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>393.32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>195.32</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>395.32</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>197.32</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>397.32</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>199.32</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>399.32</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>201.32</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>401.32000000000005</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>203.32</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>403.32000000000005</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>205.32</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>405.32000000000005</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>207.32</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>407.32000000000005</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>209.32</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>409.32000000000005</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>211.32</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>411.32000000000005</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>213.32</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>413.32000000000005</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>215.32</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>415.32000000000005</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>217.32</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>417.32000000000005</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>219.32</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>419.32000000000005</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>221.32</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>421.32000000000005</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>223.32</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>423.32000000000005</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>225.32</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>425.32000000000005</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>227.32</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>427.32000000000005</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>229.32</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>429.32000000000005</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>231.32</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>431.32000000000005</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>233.32</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>433.32000000000005</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>235.32</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>435.32000000000005</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>237.32</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>437.32000000000005</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>239.32</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>439.32000000000005</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>241.32</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>441.32000000000005</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>243.32</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>443.32000000000005</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>245.32</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>445.32000000000005</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>247.32</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>447.32000000000005</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>249.32</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>449.32000000000005</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>251.32</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>451.32000000000005</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>253.32</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>453.32000000000005</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>255.32</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>455.32000000000005</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>257.32</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>457.32000000000005</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>259.32</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>459.32000000000005</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>261.32</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>461.32000000000005</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>263.32</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>463.32000000000005</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>265.32</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>465.32000000000005</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>267.32</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>467.32000000000005</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>269.32</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>469.32000000000005</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>271.32</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>471.32000000000005</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>273.32</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>473.32000000000005</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>275.32</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>475.32000000000005</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>277.32</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>477.32000000000005</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>279.32</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>479.32000000000005</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>281.32</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>481.32000000000005</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>283.32</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>483.32000000000005</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>285.32</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>485.32000000000005</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>287.32</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>487.32000000000005</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>289.32</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>489.32000000000005</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>291.32</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>491.32000000000005</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>293.32</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>493.32000000000005</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>295.32</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>495.32000000000005</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>297.32</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>497.32000000000005</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>299.32</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>499.32000000000005</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>301.32</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>501.32000000000005</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>303.32</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>503.32000000000005</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>305.32</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>505.32000000000005</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>307.32</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>507.32000000000005</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>309.32</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>509.32000000000005</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>311.32</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>511.32000000000005</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>313.32</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>513.32</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>315.32</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>515.32</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>317.32</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>517.32</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>319.32</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>519.32</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>321.32</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>521.32</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>323.32</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>523.3199999999999</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>325.32</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>525.3199999999999</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>327.32</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>527.3199999999999</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>329.32</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>529.3199999999999</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>331.32</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>531.3199999999999</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>333.32</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>533.3199999999999</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>335.32</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>535.3199999999999</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>337.32</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>537.3199999999999</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>339.32</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>539.3199999999999</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>341.32</v>
+      </c>
+      <c r="C123" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>541.3199999999999</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>343.32</v>
+      </c>
+      <c r="C124" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>543.3199999999999</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>345.32</v>
+      </c>
+      <c r="C125" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>545.3199999999999</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>347.32</v>
+      </c>
+      <c r="C126" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>547.3199999999999</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>349.32</v>
+      </c>
+      <c r="C127" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>549.3199999999999</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>351.32</v>
+      </c>
+      <c r="C128" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>551.3199999999999</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>353.32</v>
+      </c>
+      <c r="C129" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>553.3199999999999</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>355.32</v>
+      </c>
+      <c r="C130" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>555.3199999999999</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>357.32</v>
+      </c>
+      <c r="C131" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>557.3199999999999</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>359.32</v>
+      </c>
+      <c r="C132" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>559.3199999999999</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>361.32</v>
+      </c>
+      <c r="C133" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>561.3199999999999</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>363.32</v>
+      </c>
+      <c r="C134" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>563.3199999999999</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>365.32</v>
+      </c>
+      <c r="C135" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>565.3199999999999</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>367.32</v>
+      </c>
+      <c r="C136" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>567.3199999999999</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>369.32</v>
+      </c>
+      <c r="C137" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>569.3199999999999</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>371.32</v>
+      </c>
+      <c r="C138" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>571.3199999999999</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>373.32</v>
+      </c>
+      <c r="C139" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>573.3199999999999</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="B140" t="n">
+        <v>375.32</v>
+      </c>
+      <c r="C140" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>575.3199999999999</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="B141" t="n">
+        <v>377.32</v>
+      </c>
+      <c r="C141" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>577.3199999999999</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="B142" t="n">
+        <v>379.32</v>
+      </c>
+      <c r="C142" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>579.3199999999999</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="B143" t="n">
+        <v>381.32</v>
+      </c>
+      <c r="C143" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>581.3199999999999</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="B144" t="n">
+        <v>383.32</v>
+      </c>
+      <c r="C144" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>583.3199999999999</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="B145" t="n">
+        <v>385.32</v>
+      </c>
+      <c r="C145" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>585.3199999999999</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="B146" t="n">
+        <v>387.32</v>
+      </c>
+      <c r="C146" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>587.3199999999999</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="B147" t="n">
+        <v>389.32</v>
+      </c>
+      <c r="C147" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>589.3199999999999</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="B148" t="n">
+        <v>391.32</v>
+      </c>
+      <c r="C148" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>591.3199999999999</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="B149" t="n">
+        <v>393.32</v>
+      </c>
+      <c r="C149" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>593.3199999999999</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="B150" t="n">
+        <v>395.32</v>
+      </c>
+      <c r="C150" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>595.3199999999999</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="B151" t="n">
+        <v>397.32</v>
+      </c>
+      <c r="C151" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>597.3199999999999</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="B152" t="n">
+        <v>399.32</v>
+      </c>
+      <c r="C152" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>599.3199999999999</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="B153" t="n">
+        <v>401.32</v>
+      </c>
+      <c r="C153" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>601.3199999999999</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="B154" t="n">
+        <v>403.32</v>
+      </c>
+      <c r="C154" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>603.3199999999999</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="B155" t="n">
+        <v>405.32</v>
+      </c>
+      <c r="C155" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>605.3199999999999</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="B156" t="n">
+        <v>407.32</v>
+      </c>
+      <c r="C156" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>607.3199999999999</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="B157" t="n">
+        <v>409.32</v>
+      </c>
+      <c r="C157" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>609.3199999999999</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="B158" t="n">
+        <v>411.32</v>
+      </c>
+      <c r="C158" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>611.3199999999999</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="B159" t="n">
+        <v>413.32</v>
+      </c>
+      <c r="C159" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>613.3199999999999</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B160" t="n">
+        <v>415.32</v>
+      </c>
+      <c r="C160" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>615.3199999999999</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="B161" t="n">
+        <v>417.32</v>
+      </c>
+      <c r="C161" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>617.3199999999999</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="B162" t="n">
+        <v>419.32</v>
+      </c>
+      <c r="C162" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>619.3199999999999</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="B163" t="n">
+        <v>421.32</v>
+      </c>
+      <c r="C163" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>621.3199999999999</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="B164" t="n">
+        <v>423.32</v>
+      </c>
+      <c r="C164" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>623.3199999999999</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="B165" t="n">
+        <v>425.32</v>
+      </c>
+      <c r="C165" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>625.3199999999999</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="B166" t="n">
+        <v>427.32</v>
+      </c>
+      <c r="C166" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>627.3199999999999</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="B167" t="n">
+        <v>429.32</v>
+      </c>
+      <c r="C167" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>629.3199999999999</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="B168" t="n">
+        <v>431.32</v>
+      </c>
+      <c r="C168" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>631.3199999999999</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="B169" t="n">
+        <v>433.32</v>
+      </c>
+      <c r="C169" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>633.3199999999999</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="B170" t="n">
+        <v>435.32</v>
+      </c>
+      <c r="C170" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>635.3199999999999</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="B171" t="n">
+        <v>437.32</v>
+      </c>
+      <c r="C171" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>637.3199999999999</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="B172" t="n">
+        <v>439.32</v>
+      </c>
+      <c r="C172" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>639.3199999999999</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="B173" t="n">
+        <v>441.32</v>
+      </c>
+      <c r="C173" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>641.3199999999999</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="B174" t="n">
+        <v>443.32</v>
+      </c>
+      <c r="C174" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>643.3199999999999</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="B175" t="n">
+        <v>445.32</v>
+      </c>
+      <c r="C175" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>645.3199999999999</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="B176" t="n">
+        <v>447.32</v>
+      </c>
+      <c r="C176" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>647.3199999999999</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="B177" t="n">
+        <v>449.32</v>
+      </c>
+      <c r="C177" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>649.3199999999999</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="B178" t="n">
+        <v>451.32</v>
+      </c>
+      <c r="C178" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>651.3199999999999</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B179" t="n">
+        <v>453.32</v>
+      </c>
+      <c r="C179" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>653.3199999999999</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="B180" t="n">
+        <v>455.32</v>
+      </c>
+      <c r="C180" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>655.3199999999999</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="B181" t="n">
+        <v>457.32</v>
+      </c>
+      <c r="C181" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="D181" t="n">
+        <v>657.3199999999999</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="B182" t="n">
+        <v>459.32</v>
+      </c>
+      <c r="C182" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>659.3199999999999</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="B183" t="n">
+        <v>461.32</v>
+      </c>
+      <c r="C183" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>661.3199999999999</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="B184" t="n">
+        <v>463.32</v>
+      </c>
+      <c r="C184" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>663.3199999999999</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="B185" t="n">
+        <v>465.32</v>
+      </c>
+      <c r="C185" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>665.3199999999999</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="B186" t="n">
+        <v>467.32</v>
+      </c>
+      <c r="C186" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>667.3199999999999</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="B187" t="n">
+        <v>469.32</v>
+      </c>
+      <c r="C187" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>669.3199999999999</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="B188" t="n">
+        <v>471.32</v>
+      </c>
+      <c r="C188" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>671.3199999999999</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="B189" t="n">
+        <v>473.32</v>
+      </c>
+      <c r="C189" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>673.3199999999999</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="B190" t="n">
+        <v>475.32</v>
+      </c>
+      <c r="C190" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>675.3199999999999</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="B191" t="n">
+        <v>477.32</v>
+      </c>
+      <c r="C191" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>677.3199999999999</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="B192" t="n">
+        <v>479.32</v>
+      </c>
+      <c r="C192" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>679.3199999999999</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="B193" t="n">
+        <v>481.32</v>
+      </c>
+      <c r="C193" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>681.3199999999999</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B194" t="n">
+        <v>483.32</v>
+      </c>
+      <c r="C194" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>683.3199999999999</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="B195" t="n">
+        <v>485.32</v>
+      </c>
+      <c r="C195" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>685.3199999999999</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="B196" t="n">
+        <v>487.32</v>
+      </c>
+      <c r="C196" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>687.3199999999999</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="B197" t="n">
+        <v>489.32</v>
+      </c>
+      <c r="C197" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>689.3199999999999</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="B198" t="n">
+        <v>491.32</v>
+      </c>
+      <c r="C198" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>691.3199999999999</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="B199" t="n">
+        <v>493.32</v>
+      </c>
+      <c r="C199" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>693.3199999999999</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="B200" t="n">
+        <v>495.32</v>
+      </c>
+      <c r="C200" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>695.3199999999999</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="B201" t="n">
+        <v>497.32</v>
+      </c>
+      <c r="C201" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>697.3199999999999</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B202" t="n">
+        <v>499.32</v>
+      </c>
+      <c r="C202" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>699.3199999999999</v>
       </c>
     </row>
   </sheetData>
